--- a/Code/Results/Cases/Case_1_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.12416076315771</v>
+        <v>19.00914180373853</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.359558933855484</v>
+        <v>10.36821571452253</v>
       </c>
       <c r="E2">
-        <v>15.89248545850146</v>
+        <v>17.5518400219533</v>
       </c>
       <c r="F2">
-        <v>19.18555378146447</v>
+        <v>32.94890039159539</v>
       </c>
       <c r="G2">
-        <v>2.07349318119458</v>
+        <v>3.65284475495932</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.47194162282474</v>
+        <v>12.35659796914091</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>13.33665176782702</v>
+        <v>11.27771193794353</v>
       </c>
       <c r="M2">
-        <v>16.94044611498327</v>
+        <v>17.55809320917071</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.51566704002907</v>
+        <v>24.74635415821763</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.92490079108903</v>
+        <v>18.64331542390315</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.300635884985369</v>
+        <v>10.36993450266866</v>
       </c>
       <c r="E3">
-        <v>15.46640930405546</v>
+        <v>17.45213991047067</v>
       </c>
       <c r="F3">
-        <v>19.29470967992981</v>
+        <v>33.16334309409126</v>
       </c>
       <c r="G3">
-        <v>2.080185989536792</v>
+        <v>3.65538680663969</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.23437242475631</v>
+        <v>12.30753864399268</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>12.49850901835775</v>
+        <v>10.9705724275762</v>
       </c>
       <c r="M3">
-        <v>15.98081950437988</v>
+        <v>17.28350375573791</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.37651468695278</v>
+        <v>24.86188490544451</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.15326644278802</v>
+        <v>18.41629147532288</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.26603770139807</v>
+        <v>10.37198723232048</v>
       </c>
       <c r="E4">
-        <v>15.20262174360506</v>
+        <v>17.39251751273867</v>
       </c>
       <c r="F4">
-        <v>19.39671265781163</v>
+        <v>33.30562224598224</v>
       </c>
       <c r="G4">
-        <v>2.084414805747125</v>
+        <v>3.657030340580299</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.08816265730597</v>
+        <v>12.27850920928888</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.9558244858063</v>
+        <v>10.77712349738554</v>
       </c>
       <c r="M4">
-        <v>15.36423659679598</v>
+        <v>17.1131873609417</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.31480339523449</v>
+        <v>24.94061176770542</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.83008950419504</v>
+        <v>18.32327893578884</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.252342015068335</v>
+        <v>10.37307575664721</v>
       </c>
       <c r="E5">
-        <v>15.09470458810263</v>
+        <v>17.36863950231668</v>
       </c>
       <c r="F5">
-        <v>19.44654774817577</v>
+        <v>33.36625986296754</v>
       </c>
       <c r="G5">
-        <v>2.086169087507814</v>
+        <v>3.657720959665581</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.02855487539572</v>
+        <v>12.26696189043359</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.72763922808504</v>
+        <v>10.69715973970805</v>
       </c>
       <c r="M5">
-        <v>15.10623141015653</v>
+        <v>17.04341647258398</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.2953896010192</v>
+        <v>24.97464315729449</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77590404024018</v>
+        <v>18.30780733980018</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.250092385260273</v>
+        <v>10.3732717616587</v>
       </c>
       <c r="E6">
-        <v>15.07676339168638</v>
+        <v>17.36470037019976</v>
       </c>
       <c r="F6">
-        <v>19.45530687678757</v>
+        <v>33.37648891085184</v>
       </c>
       <c r="G6">
-        <v>2.08646228492418</v>
+        <v>3.657836898703992</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.01865727561905</v>
+        <v>12.26506173890747</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.68932513451187</v>
+        <v>10.68381626078423</v>
       </c>
       <c r="M6">
-        <v>15.06298744078611</v>
+        <v>17.03181095221206</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.29250511334192</v>
+        <v>24.98041151234931</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.14894308991967</v>
+        <v>18.41503895104485</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.265851355828257</v>
+        <v>10.3720008905314</v>
       </c>
       <c r="E7">
-        <v>15.201167870225</v>
+        <v>17.39219376748381</v>
       </c>
       <c r="F7">
-        <v>19.39735196775316</v>
+        <v>33.30642927883692</v>
       </c>
       <c r="G7">
-        <v>2.084438337808769</v>
+        <v>3.657039569935149</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.0873587904972</v>
+        <v>12.27835232488808</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.9527755537966</v>
+        <v>10.77604953511589</v>
       </c>
       <c r="M7">
-        <v>15.3607841370609</v>
+        <v>17.11224779804347</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.31451867825029</v>
+        <v>24.94106284592132</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.71805118779113</v>
+        <v>18.88356680099958</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.33891771434968</v>
+        <v>10.3686020850393</v>
       </c>
       <c r="E8">
-        <v>15.74609831265876</v>
+        <v>17.51714343547158</v>
       </c>
       <c r="F8">
-        <v>19.21561159425717</v>
+        <v>33.02063176590545</v>
       </c>
       <c r="G8">
-        <v>2.075776686133209</v>
+        <v>3.653704130841105</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.39013340380409</v>
+        <v>12.33946000057794</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>13.05349078663693</v>
+        <v>11.17287254544251</v>
       </c>
       <c r="M8">
-        <v>16.61531922239161</v>
+        <v>17.46381052127926</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.46262848031157</v>
+        <v>24.78456662476422</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.51095858784004</v>
+        <v>19.77877542429382</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.494488887336425</v>
+        <v>10.36979682060082</v>
       </c>
       <c r="E9">
-        <v>16.7924221914389</v>
+        <v>17.77401550249656</v>
       </c>
       <c r="F9">
-        <v>19.16036717735903</v>
+        <v>32.5448406575104</v>
       </c>
       <c r="G9">
-        <v>2.059691328727439</v>
+        <v>3.647816410554611</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.9787323512034</v>
+        <v>12.4676272693889</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>14.98930468629596</v>
+        <v>11.90876919708992</v>
       </c>
       <c r="M9">
-        <v>18.85399336694247</v>
+        <v>18.13676626832919</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.95066377192076</v>
+        <v>24.53990520446075</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.38664266585143</v>
+        <v>20.41639586727928</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.61595307713124</v>
+        <v>10.37539285567331</v>
       </c>
       <c r="E10">
-        <v>17.54159579843706</v>
+        <v>17.96886615589916</v>
       </c>
       <c r="F10">
-        <v>19.33491210885429</v>
+        <v>32.24753165672116</v>
       </c>
       <c r="G10">
-        <v>2.048351305131928</v>
+        <v>3.643884414363683</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.40510347047993</v>
+        <v>12.56640830399648</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>16.27672499649821</v>
+        <v>12.41920680676978</v>
       </c>
       <c r="M10">
-        <v>20.36010819923866</v>
+        <v>18.61749710106931</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.44078192803862</v>
+        <v>24.39863864442518</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.20159614165744</v>
+        <v>20.70098654198122</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.672703178889445</v>
+        <v>10.37894685867074</v>
       </c>
       <c r="E11">
-        <v>17.87712707067848</v>
+        <v>18.05859990466431</v>
       </c>
       <c r="F11">
-        <v>19.46739717014426</v>
+        <v>32.12376589904281</v>
       </c>
       <c r="G11">
-        <v>2.043279096170999</v>
+        <v>3.642180197788356</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.59723002470879</v>
+        <v>12.61224597811637</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>16.83354994847884</v>
+        <v>12.64404370106235</v>
       </c>
       <c r="M11">
-        <v>21.03000113557383</v>
+        <v>18.83249075680226</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.69423628324349</v>
+        <v>24.34284258784767</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.50471166345196</v>
+        <v>20.80788124440832</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.694403144230363</v>
+        <v>10.38043620481798</v>
       </c>
       <c r="E12">
-        <v>18.00335438060462</v>
+        <v>18.09271670030615</v>
       </c>
       <c r="F12">
-        <v>19.5256812918194</v>
+        <v>32.07856208487681</v>
       </c>
       <c r="G12">
-        <v>2.041369267325144</v>
+        <v>3.641546930139191</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.66968337089316</v>
+        <v>12.62972419118388</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>17.04030418068731</v>
+        <v>12.72806539115746</v>
       </c>
       <c r="M12">
-        <v>21.2945320913224</v>
+        <v>18.9133144469028</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.79472811371343</v>
+        <v>24.32294045203538</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.43967396583109</v>
+        <v>20.78489974872854</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.689720405049096</v>
+        <v>10.38010908820513</v>
       </c>
       <c r="E13">
-        <v>17.97620707232783</v>
+        <v>18.08536329798156</v>
       </c>
       <c r="F13">
-        <v>19.51276058467321</v>
+        <v>32.08822334531138</v>
       </c>
       <c r="G13">
-        <v>2.041780123678723</v>
+        <v>3.641682779318429</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.65409315851845</v>
+        <v>12.62595473440219</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>16.99595769571094</v>
+        <v>12.71002048812147</v>
       </c>
       <c r="M13">
-        <v>21.23779717335227</v>
+        <v>18.89593475224708</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.77288274730594</v>
+        <v>24.32717203745343</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.22664348408215</v>
+        <v>20.7097988243928</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.674484267378063</v>
+        <v>10.37906652026674</v>
       </c>
       <c r="E14">
-        <v>17.88752890055831</v>
+        <v>18.06140409704109</v>
       </c>
       <c r="F14">
-        <v>19.47202698027183</v>
+        <v>32.12001354089973</v>
       </c>
       <c r="G14">
-        <v>2.043121763992843</v>
+        <v>3.6421278566997</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.60319702732545</v>
+        <v>12.61368155965496</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>16.85064170958871</v>
+        <v>12.65097896972987</v>
       </c>
       <c r="M14">
-        <v>21.05187097128263</v>
+        <v>18.83915231578235</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.70241265466023</v>
+        <v>24.34118059292232</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.09544212808044</v>
+        <v>20.66368106271063</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.665178893339339</v>
+        <v>10.37844656367125</v>
       </c>
       <c r="E15">
-        <v>17.83310075840489</v>
+        <v>18.04674555779473</v>
       </c>
       <c r="F15">
-        <v>19.44814692671455</v>
+        <v>32.13970297681859</v>
       </c>
       <c r="G15">
-        <v>2.043944930439765</v>
+        <v>3.642402051004079</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.57198149209426</v>
+        <v>12.60617930120082</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>16.7610984913916</v>
+        <v>12.61466690045935</v>
       </c>
       <c r="M15">
-        <v>20.93729176289509</v>
+        <v>18.80429293884705</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.65983911446973</v>
+        <v>24.34992124419912</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.33261388015904</v>
+        <v>20.39767959489067</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.612273963961948</v>
+        <v>10.37518075835766</v>
       </c>
       <c r="E16">
-        <v>17.51955545025561</v>
+        <v>17.96302209741699</v>
       </c>
       <c r="F16">
-        <v>19.32736407484559</v>
+        <v>32.25585214964684</v>
       </c>
       <c r="G16">
-        <v>2.048684397862083</v>
+        <v>3.64399748314011</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.39250735913303</v>
+        <v>12.56343006667779</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>16.23975849659759</v>
+        <v>12.40435972064695</v>
       </c>
       <c r="M16">
-        <v>20.31670442020405</v>
+        <v>18.60336736520885</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.42484314859718</v>
+        <v>24.4024562074947</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.85483951399147</v>
+        <v>20.2330322848142</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.580197672391116</v>
+        <v>10.37343451522687</v>
       </c>
       <c r="E17">
-        <v>17.32579968579631</v>
+        <v>17.91192613309836</v>
       </c>
       <c r="F17">
-        <v>19.26721770318893</v>
+        <v>32.33005551356344</v>
       </c>
       <c r="G17">
-        <v>2.051613000283454</v>
+        <v>3.644997817570952</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.28190819413905</v>
+        <v>12.53742925062327</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>15.91257704896983</v>
+        <v>12.273412248278</v>
       </c>
       <c r="M17">
-        <v>19.93293314008564</v>
+        <v>18.47911749930796</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.28858872039284</v>
+        <v>24.43685983986389</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.57642847556957</v>
+        <v>20.13782191455267</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.561889264437867</v>
+        <v>10.37252512278377</v>
       </c>
       <c r="E18">
-        <v>17.21386393974458</v>
+        <v>17.88264143342343</v>
       </c>
       <c r="F18">
-        <v>19.23759287361266</v>
+        <v>32.37381527002153</v>
       </c>
       <c r="G18">
-        <v>2.053305687934091</v>
+        <v>3.645581137838978</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.21812394332838</v>
+        <v>12.52255969838488</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>15.72167435897041</v>
+        <v>12.19740482597598</v>
       </c>
       <c r="M18">
-        <v>19.70934153835195</v>
+        <v>18.40730797702846</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.21308280503387</v>
+        <v>24.45744431097749</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.48154339142011</v>
+        <v>20.10550055365538</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.555714740291365</v>
+        <v>10.37223357883883</v>
       </c>
       <c r="E19">
-        <v>17.17588224081444</v>
+        <v>17.87274469442913</v>
       </c>
       <c r="F19">
-        <v>19.22840071297891</v>
+        <v>32.38881667255378</v>
       </c>
       <c r="G19">
-        <v>2.053880261209542</v>
+        <v>3.645780008192697</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.196499635813</v>
+        <v>12.51754007360836</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>15.6565702557059</v>
+        <v>12.17155346303178</v>
       </c>
       <c r="M19">
-        <v>19.63314693986335</v>
+        <v>18.38293720803694</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.18800550302754</v>
+        <v>24.46455036100711</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.90607273921622</v>
+        <v>20.25061266458181</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.583597691904489</v>
+        <v>10.37361058416555</v>
       </c>
       <c r="E20">
-        <v>17.3464768617777</v>
+        <v>17.91735473729764</v>
       </c>
       <c r="F20">
-        <v>19.27310242932356</v>
+        <v>32.32204457798913</v>
       </c>
       <c r="G20">
-        <v>2.051300404086748</v>
+        <v>3.644890507482856</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.29369960318218</v>
+        <v>12.54018830632833</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>15.94768694648462</v>
+        <v>12.28742368788011</v>
       </c>
       <c r="M20">
-        <v>19.97408194047946</v>
+        <v>18.49238017566267</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.30279583663734</v>
+        <v>24.43311502179967</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>25.28936444461054</v>
+        <v>20.73188216707206</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.678953829893977</v>
+        <v>10.37936886454566</v>
       </c>
       <c r="E21">
-        <v>17.91359890891186</v>
+        <v>18.06843795581628</v>
       </c>
       <c r="F21">
-        <v>19.48376753947093</v>
+        <v>32.11063073985833</v>
       </c>
       <c r="G21">
-        <v>2.04272740847636</v>
+        <v>3.641996799286658</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.61815488790752</v>
+        <v>12.61728329257549</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>16.8934355234727</v>
+        <v>12.66835171930255</v>
       </c>
       <c r="M21">
-        <v>21.10662649732022</v>
+        <v>18.8558471528322</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.72298796814335</v>
+        <v>24.33703257961316</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.16144950689272</v>
+        <v>21.04129075037123</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.742496424100767</v>
+        <v>10.38396807894018</v>
       </c>
       <c r="E22">
-        <v>18.27937610870882</v>
+        <v>18.16796586001453</v>
       </c>
       <c r="F22">
-        <v>19.66894506392104</v>
+        <v>31.98216216192415</v>
       </c>
       <c r="G22">
-        <v>2.037187230388957</v>
+        <v>3.640175988384561</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.82843864123823</v>
+        <v>12.66836723219557</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>17.48764485115695</v>
+        <v>12.91076306575614</v>
       </c>
       <c r="M22">
-        <v>21.86672518746922</v>
+        <v>19.08993115710492</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.0239693588563</v>
+        <v>24.28139080931547</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.69891603394421</v>
+        <v>20.87665039218172</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.708472234974045</v>
+        <v>10.38143740957585</v>
       </c>
       <c r="E23">
-        <v>18.08462061142339</v>
+        <v>18.11478093311067</v>
       </c>
       <c r="F23">
-        <v>19.56561730520025</v>
+        <v>32.04983629787949</v>
       </c>
       <c r="G23">
-        <v>2.040138921380286</v>
+        <v>3.641141369431502</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.7163787204858</v>
+        <v>12.64104197850449</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>17.17267428819365</v>
+        <v>12.78200101399028</v>
       </c>
       <c r="M23">
-        <v>21.46386789338651</v>
+        <v>18.96533160526702</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.86087917665888</v>
+        <v>24.31043038958479</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.88292182421152</v>
+        <v>20.24266628885141</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.582060129417146</v>
+        <v>10.37353068879053</v>
       </c>
       <c r="E24">
-        <v>17.33713039608343</v>
+        <v>17.91490018013216</v>
       </c>
       <c r="F24">
-        <v>19.27042655064737</v>
+        <v>32.3256628986972</v>
       </c>
       <c r="G24">
-        <v>2.051441700696047</v>
+        <v>3.644938996780021</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.28836932507512</v>
+        <v>12.53894069151267</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>15.93182249165155</v>
+        <v>12.28109136645829</v>
       </c>
       <c r="M24">
-        <v>19.95548777609844</v>
+        <v>18.48638528826918</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.29636399892638</v>
+        <v>24.43480554600242</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.78625057589019</v>
+        <v>19.53972958362175</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.451121344108967</v>
+        <v>10.3686395782295</v>
       </c>
       <c r="E25">
-        <v>16.51240768530187</v>
+        <v>17.70336828645773</v>
       </c>
       <c r="F25">
-        <v>19.13976537580643</v>
+        <v>32.66442549419114</v>
       </c>
       <c r="G25">
-        <v>2.063953485244373</v>
+        <v>3.649339737595832</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.82037220496791</v>
+        <v>12.43210945725478</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>14.4894021773918</v>
+        <v>11.71470086287455</v>
       </c>
       <c r="M25">
-        <v>18.27255725105042</v>
+        <v>17.95686161877594</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.79625162955539</v>
+        <v>24.59937290847238</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_91/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_91/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.00914180373853</v>
+        <v>20.12416076315768</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>10.36821571452253</v>
+        <v>7.359558933855492</v>
       </c>
       <c r="E2">
-        <v>17.5518400219533</v>
+        <v>15.89248545850134</v>
       </c>
       <c r="F2">
-        <v>32.94890039159539</v>
+        <v>19.18555378146439</v>
       </c>
       <c r="G2">
-        <v>3.65284475495932</v>
+        <v>2.073493181194579</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>12.35659796914091</v>
+        <v>10.47194162282468</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.27771193794353</v>
+        <v>13.33665176782702</v>
       </c>
       <c r="M2">
-        <v>17.55809320917071</v>
+        <v>16.94044611498325</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>24.74635415821763</v>
+        <v>15.515667040029</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.64331542390315</v>
+        <v>18.92490079108908</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>10.36993450266866</v>
+        <v>7.300635884985436</v>
       </c>
       <c r="E3">
-        <v>17.45213991047067</v>
+        <v>15.46640930405547</v>
       </c>
       <c r="F3">
-        <v>33.16334309409126</v>
+        <v>19.29470967992979</v>
       </c>
       <c r="G3">
-        <v>3.65538680663969</v>
+        <v>2.080185989536658</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.30753864399268</v>
+        <v>10.23437242475632</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.9705724275762</v>
+        <v>12.49850901835777</v>
       </c>
       <c r="M3">
-        <v>17.28350375573791</v>
+        <v>15.98081950437989</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.86188490544451</v>
+        <v>15.37651468695277</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.41629147532288</v>
+        <v>18.15326644278797</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>10.37198723232048</v>
+        <v>7.266037701398062</v>
       </c>
       <c r="E4">
-        <v>17.39251751273867</v>
+        <v>15.20262174360517</v>
       </c>
       <c r="F4">
-        <v>33.30562224598224</v>
+        <v>19.39671265781162</v>
       </c>
       <c r="G4">
-        <v>3.657030340580299</v>
+        <v>2.08441480574699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.27850920928888</v>
+        <v>10.08816265730602</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.77712349738554</v>
+        <v>11.95582448580626</v>
       </c>
       <c r="M4">
-        <v>17.1131873609417</v>
+        <v>15.36423659679594</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.94061176770542</v>
+        <v>15.31480339523448</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.32327893578884</v>
+        <v>17.83008950419498</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>10.37307575664721</v>
+        <v>7.252342015068399</v>
       </c>
       <c r="E5">
-        <v>17.36863950231668</v>
+        <v>15.09470458810271</v>
       </c>
       <c r="F5">
-        <v>33.36625986296754</v>
+        <v>19.4465477481758</v>
       </c>
       <c r="G5">
-        <v>3.657720959665581</v>
+        <v>2.086169087508082</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.26696189043359</v>
+        <v>10.02855487539571</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.69715973970805</v>
+        <v>11.72763922808501</v>
       </c>
       <c r="M5">
-        <v>17.04341647258398</v>
+        <v>15.10623141015652</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.97464315729449</v>
+        <v>15.29538960101917</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.30780733980018</v>
+        <v>17.7759040402402</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>10.3732717616587</v>
+        <v>7.250092385260218</v>
       </c>
       <c r="E6">
-        <v>17.36470037019976</v>
+        <v>15.07676339168628</v>
       </c>
       <c r="F6">
-        <v>33.37648891085184</v>
+        <v>19.45530687678763</v>
       </c>
       <c r="G6">
-        <v>3.657836898703992</v>
+        <v>2.08646228492418</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.26506173890747</v>
+        <v>10.01865727561894</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.68381626078423</v>
+        <v>11.68932513451193</v>
       </c>
       <c r="M6">
-        <v>17.03181095221206</v>
+        <v>15.0629874407861</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.98041151234931</v>
+        <v>15.29250511334201</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.41503895104485</v>
+        <v>18.14894308991963</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>10.3720008905314</v>
+        <v>7.265851355828323</v>
       </c>
       <c r="E7">
-        <v>17.39219376748381</v>
+        <v>15.20116787022491</v>
       </c>
       <c r="F7">
-        <v>33.30642927883692</v>
+        <v>19.3973519677531</v>
       </c>
       <c r="G7">
-        <v>3.657039569935149</v>
+        <v>2.08443833780877</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.27835232488808</v>
+        <v>10.08735879049713</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.77604953511589</v>
+        <v>11.95277555379666</v>
       </c>
       <c r="M7">
-        <v>17.11224779804347</v>
+        <v>15.36078413706088</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.94106284592132</v>
+        <v>15.31451867825023</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.88356680099958</v>
+        <v>19.71805118779112</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>10.3686020850393</v>
+        <v>7.338917714349429</v>
       </c>
       <c r="E8">
-        <v>17.51714343547158</v>
+        <v>15.74609831265859</v>
       </c>
       <c r="F8">
-        <v>33.02063176590545</v>
+        <v>19.21561159425711</v>
       </c>
       <c r="G8">
-        <v>3.653704130841105</v>
+        <v>2.075776686133477</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>12.33946000057794</v>
+        <v>10.39013340380403</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.17287254544251</v>
+        <v>13.05349078663694</v>
       </c>
       <c r="M8">
-        <v>17.46381052127926</v>
+        <v>16.61531922239158</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>24.78456662476422</v>
+        <v>15.46262848031161</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.77877542429382</v>
+        <v>22.51095858784009</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>10.36979682060082</v>
+        <v>7.494488887336324</v>
       </c>
       <c r="E9">
-        <v>17.77401550249656</v>
+        <v>16.7924221914389</v>
       </c>
       <c r="F9">
-        <v>32.5448406575104</v>
+        <v>19.16036717735888</v>
       </c>
       <c r="G9">
-        <v>3.647816410554611</v>
+        <v>2.059691328727574</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>12.4676272693889</v>
+        <v>10.97873235120341</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.90876919708992</v>
+        <v>14.98930468629598</v>
       </c>
       <c r="M9">
-        <v>18.13676626832919</v>
+        <v>18.8539933669425</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.53990520446075</v>
+        <v>15.95066377192067</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.41639586727928</v>
+        <v>24.38664266585145</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.37539285567331</v>
+        <v>7.615953077131356</v>
       </c>
       <c r="E10">
-        <v>17.96886615589916</v>
+        <v>17.54159579843716</v>
       </c>
       <c r="F10">
-        <v>32.24753165672116</v>
+        <v>19.33491210885429</v>
       </c>
       <c r="G10">
-        <v>3.643884414363683</v>
+        <v>2.048351305131927</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.56640830399648</v>
+        <v>11.40510347047997</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>12.41920680676978</v>
+        <v>16.27672499649826</v>
       </c>
       <c r="M10">
-        <v>18.61749710106931</v>
+        <v>20.36010819923869</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.39863864442518</v>
+        <v>16.44078192803861</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.70098654198122</v>
+        <v>25.20159614165745</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.37894685867074</v>
+        <v>7.672703178889449</v>
       </c>
       <c r="E11">
-        <v>18.05859990466431</v>
+        <v>17.87712707067851</v>
       </c>
       <c r="F11">
-        <v>32.12376589904281</v>
+        <v>19.4673971701442</v>
       </c>
       <c r="G11">
-        <v>3.642180197788356</v>
+        <v>2.043279096170865</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.61224597811637</v>
+        <v>11.59723002470879</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>12.64404370106235</v>
+        <v>16.83354994847889</v>
       </c>
       <c r="M11">
-        <v>18.83249075680226</v>
+        <v>21.03000113557384</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.34284258784767</v>
+        <v>16.69423628324344</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.80788124440832</v>
+        <v>25.50471166345197</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.38043620481798</v>
+        <v>7.694403144230249</v>
       </c>
       <c r="E12">
-        <v>18.09271670030615</v>
+        <v>18.0033543806046</v>
       </c>
       <c r="F12">
-        <v>32.07856208487681</v>
+        <v>19.52568129181944</v>
       </c>
       <c r="G12">
-        <v>3.641546930139191</v>
+        <v>2.041369267325011</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.62972419118388</v>
+        <v>11.66968337089323</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>12.72806539115746</v>
+        <v>17.04030418068729</v>
       </c>
       <c r="M12">
-        <v>18.9133144469028</v>
+        <v>21.29453209132237</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.32294045203538</v>
+        <v>16.79472811371348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.78489974872854</v>
+        <v>25.43967396583113</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.38010908820513</v>
+        <v>7.689720405049114</v>
       </c>
       <c r="E13">
-        <v>18.08536329798156</v>
+        <v>17.97620707232783</v>
       </c>
       <c r="F13">
-        <v>32.08822334531138</v>
+        <v>19.51276058467308</v>
       </c>
       <c r="G13">
-        <v>3.641682779318429</v>
+        <v>2.041780123678722</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.62595473440219</v>
+        <v>11.65409315851844</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>12.71002048812147</v>
+        <v>16.99595769571099</v>
       </c>
       <c r="M13">
-        <v>18.89593475224708</v>
+        <v>21.23779717335231</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.32717203745343</v>
+        <v>16.77288274730587</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.7097988243928</v>
+        <v>25.22664348408218</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.37906652026674</v>
+        <v>7.674484267378322</v>
       </c>
       <c r="E14">
-        <v>18.06140409704109</v>
+        <v>17.88752890055834</v>
       </c>
       <c r="F14">
-        <v>32.12001354089973</v>
+        <v>19.47202698027184</v>
       </c>
       <c r="G14">
-        <v>3.6421278566997</v>
+        <v>2.043121763992843</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.61368155965496</v>
+        <v>11.6031970273254</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>12.65097896972987</v>
+        <v>16.85064170958873</v>
       </c>
       <c r="M14">
-        <v>18.83915231578235</v>
+        <v>21.05187097128268</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.34118059292232</v>
+        <v>16.70241265466022</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.66368106271063</v>
+        <v>25.09544212808042</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.37844656367125</v>
+        <v>7.665178893339458</v>
       </c>
       <c r="E15">
-        <v>18.04674555779473</v>
+        <v>17.83310075840496</v>
       </c>
       <c r="F15">
-        <v>32.13970297681859</v>
+        <v>19.44814692671453</v>
       </c>
       <c r="G15">
-        <v>3.642402051004079</v>
+        <v>2.043944930439765</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.60617930120082</v>
+        <v>11.57198149209428</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>12.61466690045935</v>
+        <v>16.76109849139163</v>
       </c>
       <c r="M15">
-        <v>18.80429293884705</v>
+        <v>20.93729176289509</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.34992124419912</v>
+        <v>16.6598391144697</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.39767959489067</v>
+        <v>24.33261388015906</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.37518075835766</v>
+        <v>7.612273963961957</v>
       </c>
       <c r="E16">
-        <v>17.96302209741699</v>
+        <v>17.51955545025553</v>
       </c>
       <c r="F16">
-        <v>32.25585214964684</v>
+        <v>19.32736407484556</v>
       </c>
       <c r="G16">
-        <v>3.64399748314011</v>
+        <v>2.048684397862349</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.56343006667779</v>
+        <v>11.39250735913296</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>12.40435972064695</v>
+        <v>16.2397584965976</v>
       </c>
       <c r="M16">
-        <v>18.60336736520885</v>
+        <v>20.31670442020407</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.4024562074947</v>
+        <v>16.42484314859716</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.2330322848142</v>
+        <v>23.85483951399148</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.37343451522687</v>
+        <v>7.580197672391028</v>
       </c>
       <c r="E17">
-        <v>17.91192613309836</v>
+        <v>17.32579968579637</v>
       </c>
       <c r="F17">
-        <v>32.33005551356344</v>
+        <v>19.26721770318897</v>
       </c>
       <c r="G17">
-        <v>3.644997817570952</v>
+        <v>2.051613000283586</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.53742925062327</v>
+        <v>11.28190819413913</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>12.273412248278</v>
+        <v>15.91257704896982</v>
       </c>
       <c r="M17">
-        <v>18.47911749930796</v>
+        <v>19.9329331400856</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.43685983986389</v>
+        <v>16.28858872039287</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>20.13782191455267</v>
+        <v>23.57642847556959</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.37252512278377</v>
+        <v>7.561889264437792</v>
       </c>
       <c r="E18">
-        <v>17.88264143342343</v>
+        <v>17.21386393974457</v>
       </c>
       <c r="F18">
-        <v>32.37381527002153</v>
+        <v>19.23759287361274</v>
       </c>
       <c r="G18">
-        <v>3.645581137838978</v>
+        <v>2.053305687933957</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>12.52255969838488</v>
+        <v>11.21812394332838</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>12.19740482597598</v>
+        <v>15.72167435897041</v>
       </c>
       <c r="M18">
-        <v>18.40730797702846</v>
+        <v>19.70934153835197</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.45744431097749</v>
+        <v>16.21308280503391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>20.10550055365538</v>
+        <v>23.48154339142014</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.37223357883883</v>
+        <v>7.55571474029125</v>
       </c>
       <c r="E19">
-        <v>17.87274469442913</v>
+        <v>17.17588224081446</v>
       </c>
       <c r="F19">
-        <v>32.38881667255378</v>
+        <v>19.22840071297881</v>
       </c>
       <c r="G19">
-        <v>3.645780008192697</v>
+        <v>2.053880261209543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>12.51754007360836</v>
+        <v>11.19649963581303</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>12.17155346303178</v>
+        <v>15.65657025570589</v>
       </c>
       <c r="M19">
-        <v>18.38293720803694</v>
+        <v>19.63314693986335</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.46455036100711</v>
+        <v>16.18800550302749</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.25061266458181</v>
+        <v>23.9060727392162</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.37361058416555</v>
+        <v>7.583597691904393</v>
       </c>
       <c r="E20">
-        <v>17.91735473729764</v>
+        <v>17.34647686177764</v>
       </c>
       <c r="F20">
-        <v>32.32204457798913</v>
+        <v>19.27310242932354</v>
       </c>
       <c r="G20">
-        <v>3.644890507482856</v>
+        <v>2.05130040408648</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.54018830632833</v>
+        <v>11.29369960318214</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>12.28742368788011</v>
+        <v>15.94768694648466</v>
       </c>
       <c r="M20">
-        <v>18.49238017566267</v>
+        <v>19.97408194047948</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.43311502179967</v>
+        <v>16.30279583663737</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.73188216707206</v>
+        <v>25.2893644446105</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.37936886454566</v>
+        <v>7.678953829893794</v>
       </c>
       <c r="E21">
-        <v>18.06843795581628</v>
+        <v>17.91359890891184</v>
       </c>
       <c r="F21">
-        <v>32.11063073985833</v>
+        <v>19.48376753947094</v>
       </c>
       <c r="G21">
-        <v>3.641996799286658</v>
+        <v>2.042727408476495</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.61728329257549</v>
+        <v>11.61815488790758</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>12.66835171930255</v>
+        <v>16.89343552347268</v>
       </c>
       <c r="M21">
-        <v>18.8558471528322</v>
+        <v>21.10662649732022</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.33703257961316</v>
+        <v>16.72298796814336</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.04129075037123</v>
+        <v>26.1614495068927</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.38396807894018</v>
+        <v>7.742496424100767</v>
       </c>
       <c r="E22">
-        <v>18.16796586001453</v>
+        <v>18.27937610870881</v>
       </c>
       <c r="F22">
-        <v>31.98216216192415</v>
+        <v>19.66894506392103</v>
       </c>
       <c r="G22">
-        <v>3.640175988384561</v>
+        <v>2.037187230388957</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.66836723219557</v>
+        <v>11.82843864123823</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>12.91076306575614</v>
+        <v>17.48764485115694</v>
       </c>
       <c r="M22">
-        <v>19.08993115710492</v>
+        <v>21.86672518746923</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.28139080931547</v>
+        <v>17.0239693588563</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.87665039218172</v>
+        <v>25.69891603394413</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.38143740957585</v>
+        <v>7.708472234974069</v>
       </c>
       <c r="E23">
-        <v>18.11478093311067</v>
+        <v>18.08462061142331</v>
       </c>
       <c r="F23">
-        <v>32.04983629787949</v>
+        <v>19.56561730520039</v>
       </c>
       <c r="G23">
-        <v>3.641141369431502</v>
+        <v>2.040138921380151</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.64104197850449</v>
+        <v>11.71637872048572</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>12.78200101399028</v>
+        <v>17.17267428819362</v>
       </c>
       <c r="M23">
-        <v>18.96533160526702</v>
+        <v>21.46386789338644</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.31043038958479</v>
+        <v>16.86087917665894</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.24266628885141</v>
+        <v>23.88292182421151</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.37353068879053</v>
+        <v>7.582060129417101</v>
       </c>
       <c r="E24">
-        <v>17.91490018013216</v>
+        <v>17.33713039608342</v>
       </c>
       <c r="F24">
-        <v>32.3256628986972</v>
+        <v>19.27042655064727</v>
       </c>
       <c r="G24">
-        <v>3.644938996780021</v>
+        <v>2.051441700696315</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.53894069151267</v>
+        <v>11.28836932507511</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>12.28109136645829</v>
+        <v>15.93182249165157</v>
       </c>
       <c r="M24">
-        <v>18.48638528826918</v>
+        <v>19.95548777609845</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.43480554600242</v>
+        <v>16.29636399892632</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.53972958362175</v>
+        <v>21.7862505758902</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>10.3686395782295</v>
+        <v>7.45112134410898</v>
       </c>
       <c r="E25">
-        <v>17.70336828645773</v>
+        <v>16.51240768530203</v>
       </c>
       <c r="F25">
-        <v>32.66442549419114</v>
+        <v>19.13976537580649</v>
       </c>
       <c r="G25">
-        <v>3.649339737595832</v>
+        <v>2.063953485244505</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>12.43210945725478</v>
+        <v>10.82037220496801</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.71470086287455</v>
+        <v>14.48940217739185</v>
       </c>
       <c r="M25">
-        <v>17.95686161877594</v>
+        <v>18.27255725105043</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.59937290847238</v>
+        <v>15.7962516295554</v>
       </c>
     </row>
   </sheetData>
